--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl5</t>
   </si>
   <si>
     <t>Gpr75</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,134 +528,134 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H2">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I2">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J2">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.538062706961455</v>
+        <v>0.03650533333333333</v>
       </c>
       <c r="N2">
-        <v>0.538062706961455</v>
+        <v>0.109516</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.05048553535660861</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0504855353566086</v>
       </c>
       <c r="Q2">
-        <v>0.6824085353779598</v>
+        <v>0.0007963273413333333</v>
       </c>
       <c r="R2">
-        <v>0.6824085353779598</v>
+        <v>0.007166946072</v>
       </c>
       <c r="S2">
-        <v>0.02732223735284674</v>
+        <v>1.951137332075074E-05</v>
       </c>
       <c r="T2">
-        <v>0.02732223735284674</v>
+        <v>1.951137332075073E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>9.98925018056247</v>
+        <v>0.021814</v>
       </c>
       <c r="H3">
-        <v>9.98925018056247</v>
+        <v>0.065442</v>
       </c>
       <c r="I3">
-        <v>0.2151976834501957</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J3">
-        <v>0.2151976834501957</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.538062706961455</v>
+        <v>0.1012513333333333</v>
       </c>
       <c r="N3">
-        <v>0.538062706961455</v>
+        <v>0.303754</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1400268755863188</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1400268755863188</v>
       </c>
       <c r="Q3">
-        <v>5.374842992668645</v>
+        <v>0.002208696585333333</v>
       </c>
       <c r="R3">
-        <v>5.374842992668645</v>
+        <v>0.019878269268</v>
       </c>
       <c r="S3">
-        <v>0.2151976834501957</v>
+        <v>5.411682029722889E-05</v>
       </c>
       <c r="T3">
-        <v>0.2151976834501957</v>
+        <v>5.411682029722889E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +664,979 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>35.1614287690131</v>
+        <v>0.021814</v>
       </c>
       <c r="H4">
-        <v>35.1614287690131</v>
+        <v>0.065442</v>
       </c>
       <c r="I4">
-        <v>0.7574800791969577</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J4">
-        <v>0.7574800791969577</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.538062706961455</v>
+        <v>0.5853283333333333</v>
       </c>
       <c r="N4">
-        <v>0.538062706961455</v>
+        <v>1.755985</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.8094875890570726</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8094875890570726</v>
       </c>
       <c r="Q4">
-        <v>18.91905354408757</v>
+        <v>0.01276835226333333</v>
       </c>
       <c r="R4">
-        <v>18.91905354408757</v>
+        <v>0.11491517037</v>
       </c>
       <c r="S4">
-        <v>0.7574800791969577</v>
+        <v>0.0003128463318660148</v>
       </c>
       <c r="T4">
-        <v>0.7574800791969577</v>
+        <v>0.0003128463318660148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.348859666666667</v>
+      </c>
+      <c r="H5">
+        <v>4.046578999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.02389749241860727</v>
+      </c>
+      <c r="J5">
+        <v>0.02389749241860726</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.03650533333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.109516</v>
+      </c>
+      <c r="O5">
+        <v>0.05048553535660861</v>
+      </c>
+      <c r="P5">
+        <v>0.0504855353566086</v>
+      </c>
+      <c r="Q5">
+        <v>0.04924057175155555</v>
+      </c>
+      <c r="R5">
+        <v>0.443165145764</v>
+      </c>
+      <c r="S5">
+        <v>0.001206477698433883</v>
+      </c>
+      <c r="T5">
+        <v>0.001206477698433883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.348859666666667</v>
+      </c>
+      <c r="H6">
+        <v>4.046578999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.02389749241860727</v>
+      </c>
+      <c r="J6">
+        <v>0.02389749241860726</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1012513333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.303754</v>
+      </c>
+      <c r="O6">
+        <v>0.1400268755863188</v>
+      </c>
+      <c r="P6">
+        <v>0.1400268755863188</v>
+      </c>
+      <c r="Q6">
+        <v>0.1365738397295556</v>
+      </c>
+      <c r="R6">
+        <v>1.229164557566</v>
+      </c>
+      <c r="S6">
+        <v>0.003346291197725317</v>
+      </c>
+      <c r="T6">
+        <v>0.003346291197725316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.348859666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.046578999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.02389749241860727</v>
+      </c>
+      <c r="J7">
+        <v>0.02389749241860726</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5853283333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.755985</v>
+      </c>
+      <c r="O7">
+        <v>0.8094875890570726</v>
+      </c>
+      <c r="P7">
+        <v>0.8094875890570726</v>
+      </c>
+      <c r="Q7">
+        <v>0.7895257805905556</v>
+      </c>
+      <c r="R7">
+        <v>7.105732025315</v>
+      </c>
+      <c r="S7">
+        <v>0.01934472352244807</v>
+      </c>
+      <c r="T7">
+        <v>0.01934472352244807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>18.462627</v>
+      </c>
+      <c r="H8">
+        <v>55.387881</v>
+      </c>
+      <c r="I8">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J8">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03650533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.109516</v>
+      </c>
+      <c r="O8">
+        <v>0.05048553535660861</v>
+      </c>
+      <c r="P8">
+        <v>0.0504855353566086</v>
+      </c>
+      <c r="Q8">
+        <v>0.673984352844</v>
+      </c>
+      <c r="R8">
+        <v>6.065859175596001</v>
+      </c>
+      <c r="S8">
+        <v>0.01651376216552545</v>
+      </c>
+      <c r="T8">
+        <v>0.01651376216552545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>18.462627</v>
+      </c>
+      <c r="H9">
+        <v>55.387881</v>
+      </c>
+      <c r="I9">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J9">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1012513333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.303754</v>
+      </c>
+      <c r="O9">
+        <v>0.1400268755863188</v>
+      </c>
+      <c r="P9">
+        <v>0.1400268755863188</v>
+      </c>
+      <c r="Q9">
+        <v>1.869365600586</v>
+      </c>
+      <c r="R9">
+        <v>16.824290405274</v>
+      </c>
+      <c r="S9">
+        <v>0.04580263443539774</v>
+      </c>
+      <c r="T9">
+        <v>0.04580263443539773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>18.462627</v>
+      </c>
+      <c r="H10">
+        <v>55.387881</v>
+      </c>
+      <c r="I10">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J10">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5853283333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.755985</v>
+      </c>
+      <c r="O10">
+        <v>0.8094875890570726</v>
+      </c>
+      <c r="P10">
+        <v>0.8094875890570726</v>
+      </c>
+      <c r="Q10">
+        <v>10.806698690865</v>
+      </c>
+      <c r="R10">
+        <v>97.260288217785</v>
+      </c>
+      <c r="S10">
+        <v>0.2647824852645295</v>
+      </c>
+      <c r="T10">
+        <v>0.2647824852645295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H11">
+        <v>107.809532</v>
+      </c>
+      <c r="I11">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J11">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.03650533333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.109516</v>
+      </c>
+      <c r="O11">
+        <v>0.05048553535660861</v>
+      </c>
+      <c r="P11">
+        <v>0.0504855353566086</v>
+      </c>
+      <c r="Q11">
+        <v>1.311874300723556</v>
+      </c>
+      <c r="R11">
+        <v>11.806868706512</v>
+      </c>
+      <c r="S11">
+        <v>0.03214315006245871</v>
+      </c>
+      <c r="T11">
+        <v>0.03214315006245871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H12">
+        <v>107.809532</v>
+      </c>
+      <c r="I12">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J12">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1012513333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.303754</v>
+      </c>
+      <c r="O12">
+        <v>0.1400268755863188</v>
+      </c>
+      <c r="P12">
+        <v>0.1400268755863188</v>
+      </c>
+      <c r="Q12">
+        <v>3.638619620347556</v>
+      </c>
+      <c r="R12">
+        <v>32.747576583128</v>
+      </c>
+      <c r="S12">
+        <v>0.08915236498842255</v>
+      </c>
+      <c r="T12">
+        <v>0.08915236498842252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H13">
+        <v>107.809532</v>
+      </c>
+      <c r="I13">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J13">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5853283333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.755985</v>
+      </c>
+      <c r="O13">
+        <v>0.8094875890570726</v>
+      </c>
+      <c r="P13">
+        <v>0.8094875890570726</v>
+      </c>
+      <c r="Q13">
+        <v>21.03465789433556</v>
+      </c>
+      <c r="R13">
+        <v>189.31192104902</v>
+      </c>
+      <c r="S13">
+        <v>0.5153848694476292</v>
+      </c>
+      <c r="T13">
+        <v>0.5153848694476292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.178527</v>
+      </c>
+      <c r="H14">
+        <v>0.535581</v>
+      </c>
+      <c r="I14">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J14">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03650533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.109516</v>
+      </c>
+      <c r="O14">
+        <v>0.05048553535660861</v>
+      </c>
+      <c r="P14">
+        <v>0.0504855353566086</v>
+      </c>
+      <c r="Q14">
+        <v>0.006517187644</v>
+      </c>
+      <c r="R14">
+        <v>0.058654688796</v>
+      </c>
+      <c r="S14">
+        <v>0.0001596821740549036</v>
+      </c>
+      <c r="T14">
+        <v>0.0001596821740549035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.178527</v>
+      </c>
+      <c r="H15">
+        <v>0.535581</v>
+      </c>
+      <c r="I15">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J15">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1012513333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.303754</v>
+      </c>
+      <c r="O15">
+        <v>0.1400268755863188</v>
+      </c>
+      <c r="P15">
+        <v>0.1400268755863188</v>
+      </c>
+      <c r="Q15">
+        <v>0.018076096786</v>
+      </c>
+      <c r="R15">
+        <v>0.162684871074</v>
+      </c>
+      <c r="S15">
+        <v>0.0004428950938481426</v>
+      </c>
+      <c r="T15">
+        <v>0.0004428950938481425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.178527</v>
+      </c>
+      <c r="H16">
+        <v>0.535581</v>
+      </c>
+      <c r="I16">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J16">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5853283333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.755985</v>
+      </c>
+      <c r="O16">
+        <v>0.8094875890570726</v>
+      </c>
+      <c r="P16">
+        <v>0.8094875890570726</v>
+      </c>
+      <c r="Q16">
+        <v>0.104496911365</v>
+      </c>
+      <c r="R16">
+        <v>0.9404722022850001</v>
+      </c>
+      <c r="S16">
+        <v>0.002560351934035208</v>
+      </c>
+      <c r="T16">
+        <v>0.002560351934035208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.48568</v>
+      </c>
+      <c r="I17">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J17">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03650533333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.109516</v>
+      </c>
+      <c r="O17">
+        <v>0.05048553535660861</v>
+      </c>
+      <c r="P17">
+        <v>0.0504855353566086</v>
+      </c>
+      <c r="Q17">
+        <v>0.01807841454222222</v>
+      </c>
+      <c r="R17">
+        <v>0.16270573088</v>
+      </c>
+      <c r="S17">
+        <v>0.0004429518828149041</v>
+      </c>
+      <c r="T17">
+        <v>0.000442951882814904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.48568</v>
+      </c>
+      <c r="I18">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J18">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1012513333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.303754</v>
+      </c>
+      <c r="O18">
+        <v>0.1400268755863188</v>
+      </c>
+      <c r="P18">
+        <v>0.1400268755863188</v>
+      </c>
+      <c r="Q18">
+        <v>0.05014236030222223</v>
+      </c>
+      <c r="R18">
+        <v>0.4512812427200001</v>
+      </c>
+      <c r="S18">
+        <v>0.001228573050627839</v>
+      </c>
+      <c r="T18">
+        <v>0.001228573050627838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.48568</v>
+      </c>
+      <c r="I19">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J19">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5853283333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.755985</v>
+      </c>
+      <c r="O19">
+        <v>0.8094875890570726</v>
+      </c>
+      <c r="P19">
+        <v>0.8094875890570726</v>
+      </c>
+      <c r="Q19">
+        <v>0.2898701994222223</v>
+      </c>
+      <c r="R19">
+        <v>2.6088317948</v>
+      </c>
+      <c r="S19">
+        <v>0.007102312556564606</v>
+      </c>
+      <c r="T19">
+        <v>0.007102312556564606</v>
       </c>
     </row>
   </sheetData>
